--- a/Document/2.Design/Template/Thong_tin_chi_tiet_hang_ton_kho_all.xlsx
+++ b/Document/2.Design/Template/Thong_tin_chi_tiet_hang_ton_kho_all.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4632EED4-28F5-4D70-9067-A74619C65ACD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05D61C2E-200C-436E-946D-41EC926CE83C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -124,9 +124,6 @@
     <t>Tên đối tác</t>
   </si>
   <si>
-    <t>${itempartnerCode}</t>
-  </si>
-  <si>
     <t>${item.partnerName}</t>
   </si>
   <si>
@@ -134,6 +131,9 @@
   </si>
   <si>
     <t>${item.totalMoney}</t>
+  </si>
+  <si>
+    <t>${item.partnerCode}</t>
   </si>
 </sst>
 </file>
@@ -533,7 +533,7 @@
   <dimension ref="A1:Q7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -653,7 +653,7 @@
         <v>6</v>
       </c>
       <c r="M4" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N4" s="11" t="s">
         <v>21</v>
@@ -700,10 +700,10 @@
         <v>29</v>
       </c>
       <c r="D6" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="6" t="s">
         <v>34</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>35</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>10</v>
@@ -727,7 +727,7 @@
         <v>16</v>
       </c>
       <c r="M6" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N6" s="7" t="s">
         <v>23</v>
